--- a/output/proyecciones/proyeccion_pea_por_sexo.xlsx
+++ b/output/proyecciones/proyeccion_pea_por_sexo.xlsx
@@ -489,13 +489,13 @@
         <v>45658</v>
       </c>
       <c r="B9">
-        <v>990108.381467861</v>
+        <v>990111.3636582257</v>
       </c>
       <c r="C9">
-        <v>831308.8434214069</v>
+        <v>831314.4975979078</v>
       </c>
       <c r="D9">
-        <v>1821417.224889268</v>
+        <v>1821425.861256134</v>
       </c>
     </row>
     <row r="10">
@@ -503,13 +503,13 @@
         <v>47484</v>
       </c>
       <c r="B10">
-        <v>1009820.519324138</v>
+        <v>1009838.458882504</v>
       </c>
       <c r="C10">
-        <v>850338.6010015674</v>
+        <v>850373.6581766765</v>
       </c>
       <c r="D10">
-        <v>1860159.120325706</v>
+        <v>1860212.117059181</v>
       </c>
     </row>
     <row r="11">
@@ -517,13 +517,13 @@
         <v>49310</v>
       </c>
       <c r="B11">
-        <v>1027478.16762167</v>
+        <v>1027531.694762051</v>
       </c>
       <c r="C11">
-        <v>868049.6442138629</v>
+        <v>868156.3520049311</v>
       </c>
       <c r="D11">
-        <v>1895527.811835533</v>
+        <v>1895688.046766982</v>
       </c>
     </row>
     <row r="12">
@@ -531,13 +531,13 @@
         <v>51136</v>
       </c>
       <c r="B12">
-        <v>1038255.800326183</v>
+        <v>1038369.02837113</v>
       </c>
       <c r="C12">
-        <v>878324.5771338706</v>
+        <v>878556.1803677904</v>
       </c>
       <c r="D12">
-        <v>1916580.377460054</v>
+        <v>1916925.20873892</v>
       </c>
     </row>
     <row r="13">
@@ -545,13 +545,13 @@
         <v>52963</v>
       </c>
       <c r="B13">
-        <v>1037450.526776197</v>
+        <v>1037644.072918339</v>
       </c>
       <c r="C13">
-        <v>879885.7741500348</v>
+        <v>880302.1978995795</v>
       </c>
       <c r="D13">
-        <v>1917336.300926232</v>
+        <v>1917946.270817919</v>
       </c>
     </row>
     <row r="14">
@@ -559,13 +559,13 @@
         <v>54789</v>
       </c>
       <c r="B14">
-        <v>1030921.231681681</v>
+        <v>1031218.814306257</v>
       </c>
       <c r="C14">
-        <v>876767.7485826823</v>
+        <v>877441.7585444573</v>
       </c>
       <c r="D14">
-        <v>1907688.980264363</v>
+        <v>1908660.572850714</v>
       </c>
     </row>
     <row r="15">
@@ -573,13 +573,13 @@
         <v>56615</v>
       </c>
       <c r="B15">
-        <v>1018536.002568605</v>
+        <v>1018946.673769818</v>
       </c>
       <c r="C15">
-        <v>865345.1590901307</v>
+        <v>866333.4608667413</v>
       </c>
       <c r="D15">
-        <v>1883881.161658735</v>
+        <v>1885280.134636559</v>
       </c>
     </row>
     <row r="16">
@@ -587,13 +587,13 @@
         <v>58441</v>
       </c>
       <c r="B16">
-        <v>999013.8374270187</v>
+        <v>999525.3877778889</v>
       </c>
       <c r="C16">
-        <v>844661.3526439342</v>
+        <v>846011.7320133122</v>
       </c>
       <c r="D16">
-        <v>1843675.190070953</v>
+        <v>1845537.119791201</v>
       </c>
     </row>
     <row r="17">
@@ -601,13 +601,13 @@
         <v>60268</v>
       </c>
       <c r="B17">
-        <v>972186.0112812264</v>
+        <v>972793.8281127313</v>
       </c>
       <c r="C17">
-        <v>819894.6328608491</v>
+        <v>821655.2534553671</v>
       </c>
       <c r="D17">
-        <v>1792080.644142075</v>
+        <v>1794449.081568098</v>
       </c>
     </row>
     <row r="18">
@@ -615,13 +615,13 @@
         <v>62094</v>
       </c>
       <c r="B18">
-        <v>943208.7152605215</v>
+        <v>943897.9557722975</v>
       </c>
       <c r="C18">
-        <v>792941.4393109806</v>
+        <v>795191.0654827683</v>
       </c>
       <c r="D18">
-        <v>1736150.154571502</v>
+        <v>1739089.021255066</v>
       </c>
     </row>
     <row r="19">
@@ -629,13 +629,13 @@
         <v>63920</v>
       </c>
       <c r="B19">
-        <v>908414.0898790854</v>
+        <v>909182.543202111</v>
       </c>
       <c r="C19">
-        <v>764206.258038302</v>
+        <v>766968.9717814658</v>
       </c>
       <c r="D19">
-        <v>1672620.347917387</v>
+        <v>1676151.514983577</v>
       </c>
     </row>
     <row r="20">
@@ -643,13 +643,13 @@
         <v>65746</v>
       </c>
       <c r="B20">
-        <v>863980.9891752839</v>
+        <v>864782.6833214258</v>
       </c>
       <c r="C20">
-        <v>724944.5790838501</v>
+        <v>728187.7033590564</v>
       </c>
       <c r="D20">
-        <v>1588925.568259134</v>
+        <v>1592970.386680482</v>
       </c>
     </row>
     <row r="21">
@@ -657,13 +657,13 @@
         <v>67573</v>
       </c>
       <c r="B21">
-        <v>814023.922221331</v>
+        <v>814816.909249138</v>
       </c>
       <c r="C21">
-        <v>682481.1110278579</v>
+        <v>686234.4709944156</v>
       </c>
       <c r="D21">
-        <v>1496505.033249189</v>
+        <v>1501051.380243554</v>
       </c>
     </row>
     <row r="22">
@@ -671,13 +671,13 @@
         <v>69399</v>
       </c>
       <c r="B22">
-        <v>763094.0345235339</v>
+        <v>763954.3121890175</v>
       </c>
       <c r="C22">
-        <v>639506.4296585751</v>
+        <v>643899.7470905373</v>
       </c>
       <c r="D22">
-        <v>1402600.464182109</v>
+        <v>1407854.059279555</v>
       </c>
     </row>
     <row r="23">
@@ -685,13 +685,13 @@
         <v>71225</v>
       </c>
       <c r="B23">
-        <v>707408.8827886988</v>
+        <v>708329.7785302646</v>
       </c>
       <c r="C23">
-        <v>590740.9778599025</v>
+        <v>595847.0536259327</v>
       </c>
       <c r="D23">
-        <v>1298149.860648601</v>
+        <v>1304176.832156197</v>
       </c>
     </row>
     <row r="24">
@@ -699,13 +699,13 @@
         <v>73051</v>
       </c>
       <c r="B24">
-        <v>647598.4055939707</v>
+        <v>648565.7703387433</v>
       </c>
       <c r="C24">
-        <v>539673.8945054142</v>
+        <v>545519.484876293</v>
       </c>
       <c r="D24">
-        <v>1187272.300099385</v>
+        <v>1194085.255215036</v>
       </c>
     </row>
   </sheetData>

--- a/output/proyecciones/proyeccion_pea_por_sexo.xlsx
+++ b/output/proyecciones/proyeccion_pea_por_sexo.xlsx
@@ -391,13 +391,13 @@
         <v>32874</v>
       </c>
       <c r="B2">
-        <v>838103.53487</v>
+        <v>838104</v>
       </c>
       <c r="C2">
-        <v>548025.82308</v>
+        <v>548026</v>
       </c>
       <c r="D2">
-        <v>1386129.35795</v>
+        <v>1386130</v>
       </c>
     </row>
     <row r="3">
@@ -405,13 +405,13 @@
         <v>34700</v>
       </c>
       <c r="B3">
-        <v>879376.70583</v>
+        <v>879377</v>
       </c>
       <c r="C3">
-        <v>622992.36812</v>
+        <v>622992</v>
       </c>
       <c r="D3">
-        <v>1502369.07395</v>
+        <v>1502369</v>
       </c>
     </row>
     <row r="4">
@@ -419,13 +419,13 @@
         <v>36526</v>
       </c>
       <c r="B4">
-        <v>890880.43009</v>
+        <v>890880</v>
       </c>
       <c r="C4">
-        <v>668250.08302</v>
+        <v>668250</v>
       </c>
       <c r="D4">
-        <v>1559130.51311</v>
+        <v>1559130</v>
       </c>
     </row>
     <row r="5">
@@ -433,13 +433,13 @@
         <v>38353</v>
       </c>
       <c r="B5">
-        <v>885502.42671</v>
+        <v>885502</v>
       </c>
       <c r="C5">
-        <v>697832.9622899999</v>
+        <v>697833</v>
       </c>
       <c r="D5">
-        <v>1583335.389</v>
+        <v>1583335</v>
       </c>
     </row>
     <row r="6">
@@ -447,13 +447,13 @@
         <v>40179</v>
       </c>
       <c r="B6">
-        <v>950343.65191</v>
+        <v>950344</v>
       </c>
       <c r="C6">
-        <v>760958.62362</v>
+        <v>760959</v>
       </c>
       <c r="D6">
-        <v>1711302.27553</v>
+        <v>1711303</v>
       </c>
     </row>
     <row r="7">
@@ -461,13 +461,13 @@
         <v>42005</v>
       </c>
       <c r="B7">
-        <v>960782.23676</v>
+        <v>960782</v>
       </c>
       <c r="C7">
-        <v>788453.8092899999</v>
+        <v>788454</v>
       </c>
       <c r="D7">
-        <v>1749236.04605</v>
+        <v>1749236</v>
       </c>
     </row>
     <row r="8">
@@ -475,13 +475,13 @@
         <v>43831</v>
       </c>
       <c r="B8">
-        <v>966785.0000999999</v>
+        <v>966785</v>
       </c>
       <c r="C8">
-        <v>808048.68715</v>
+        <v>808049</v>
       </c>
       <c r="D8">
-        <v>1774833.68725</v>
+        <v>1774834</v>
       </c>
     </row>
     <row r="9">
@@ -489,13 +489,13 @@
         <v>45658</v>
       </c>
       <c r="B9">
-        <v>990111.3636582257</v>
+        <v>990111</v>
       </c>
       <c r="C9">
-        <v>831314.4975979078</v>
+        <v>831314</v>
       </c>
       <c r="D9">
-        <v>1821425.861256134</v>
+        <v>1821425</v>
       </c>
     </row>
     <row r="10">
@@ -503,13 +503,13 @@
         <v>47484</v>
       </c>
       <c r="B10">
-        <v>1009838.458882504</v>
+        <v>1009838</v>
       </c>
       <c r="C10">
-        <v>850373.6581766765</v>
+        <v>850374</v>
       </c>
       <c r="D10">
-        <v>1860212.117059181</v>
+        <v>1860212</v>
       </c>
     </row>
     <row r="11">
@@ -517,13 +517,13 @@
         <v>49310</v>
       </c>
       <c r="B11">
-        <v>1027531.694762051</v>
+        <v>1027532</v>
       </c>
       <c r="C11">
-        <v>868156.3520049311</v>
+        <v>868156</v>
       </c>
       <c r="D11">
-        <v>1895688.046766982</v>
+        <v>1895688</v>
       </c>
     </row>
     <row r="12">
@@ -531,13 +531,13 @@
         <v>51136</v>
       </c>
       <c r="B12">
-        <v>1038369.02837113</v>
+        <v>1038369</v>
       </c>
       <c r="C12">
-        <v>878556.1803677904</v>
+        <v>878556</v>
       </c>
       <c r="D12">
-        <v>1916925.20873892</v>
+        <v>1916925</v>
       </c>
     </row>
     <row r="13">
@@ -545,13 +545,13 @@
         <v>52963</v>
       </c>
       <c r="B13">
-        <v>1037644.072918339</v>
+        <v>1037644</v>
       </c>
       <c r="C13">
-        <v>880302.1978995795</v>
+        <v>880302</v>
       </c>
       <c r="D13">
-        <v>1917946.270817919</v>
+        <v>1917946</v>
       </c>
     </row>
     <row r="14">
@@ -559,13 +559,13 @@
         <v>54789</v>
       </c>
       <c r="B14">
-        <v>1031218.814306257</v>
+        <v>1031219</v>
       </c>
       <c r="C14">
-        <v>877441.7585444573</v>
+        <v>877442</v>
       </c>
       <c r="D14">
-        <v>1908660.572850714</v>
+        <v>1908661</v>
       </c>
     </row>
     <row r="15">
@@ -573,13 +573,13 @@
         <v>56615</v>
       </c>
       <c r="B15">
-        <v>1018946.673769818</v>
+        <v>1018947</v>
       </c>
       <c r="C15">
-        <v>866333.4608667413</v>
+        <v>866333</v>
       </c>
       <c r="D15">
-        <v>1885280.134636559</v>
+        <v>1885280</v>
       </c>
     </row>
     <row r="16">
@@ -587,13 +587,13 @@
         <v>58441</v>
       </c>
       <c r="B16">
-        <v>999525.3877778889</v>
+        <v>999525</v>
       </c>
       <c r="C16">
-        <v>846011.7320133122</v>
+        <v>846012</v>
       </c>
       <c r="D16">
-        <v>1845537.119791201</v>
+        <v>1845537</v>
       </c>
     </row>
     <row r="17">
@@ -601,13 +601,13 @@
         <v>60268</v>
       </c>
       <c r="B17">
-        <v>972793.8281127313</v>
+        <v>972794</v>
       </c>
       <c r="C17">
-        <v>821655.2534553671</v>
+        <v>821655</v>
       </c>
       <c r="D17">
-        <v>1794449.081568098</v>
+        <v>1794449</v>
       </c>
     </row>
     <row r="18">
@@ -615,13 +615,13 @@
         <v>62094</v>
       </c>
       <c r="B18">
-        <v>943897.9557722975</v>
+        <v>943898</v>
       </c>
       <c r="C18">
-        <v>795191.0654827683</v>
+        <v>795191</v>
       </c>
       <c r="D18">
-        <v>1739089.021255066</v>
+        <v>1739089</v>
       </c>
     </row>
     <row r="19">
@@ -629,13 +629,13 @@
         <v>63920</v>
       </c>
       <c r="B19">
-        <v>909182.543202111</v>
+        <v>909183</v>
       </c>
       <c r="C19">
-        <v>766968.9717814658</v>
+        <v>766969</v>
       </c>
       <c r="D19">
-        <v>1676151.514983577</v>
+        <v>1676152</v>
       </c>
     </row>
     <row r="20">
@@ -643,13 +643,13 @@
         <v>65746</v>
       </c>
       <c r="B20">
-        <v>864782.6833214258</v>
+        <v>864783</v>
       </c>
       <c r="C20">
-        <v>728187.7033590564</v>
+        <v>728188</v>
       </c>
       <c r="D20">
-        <v>1592970.386680482</v>
+        <v>1592971</v>
       </c>
     </row>
     <row r="21">
@@ -657,13 +657,13 @@
         <v>67573</v>
       </c>
       <c r="B21">
-        <v>814816.909249138</v>
+        <v>814817</v>
       </c>
       <c r="C21">
-        <v>686234.4709944156</v>
+        <v>686234</v>
       </c>
       <c r="D21">
-        <v>1501051.380243554</v>
+        <v>1501051</v>
       </c>
     </row>
     <row r="22">
@@ -671,13 +671,13 @@
         <v>69399</v>
       </c>
       <c r="B22">
-        <v>763954.3121890175</v>
+        <v>763954</v>
       </c>
       <c r="C22">
-        <v>643899.7470905373</v>
+        <v>643900</v>
       </c>
       <c r="D22">
-        <v>1407854.059279555</v>
+        <v>1407854</v>
       </c>
     </row>
     <row r="23">
@@ -685,13 +685,13 @@
         <v>71225</v>
       </c>
       <c r="B23">
-        <v>708329.7785302646</v>
+        <v>708330</v>
       </c>
       <c r="C23">
-        <v>595847.0536259327</v>
+        <v>595847</v>
       </c>
       <c r="D23">
-        <v>1304176.832156197</v>
+        <v>1304177</v>
       </c>
     </row>
     <row r="24">
@@ -699,13 +699,13 @@
         <v>73051</v>
       </c>
       <c r="B24">
-        <v>648565.7703387433</v>
+        <v>648566</v>
       </c>
       <c r="C24">
-        <v>545519.484876293</v>
+        <v>545519</v>
       </c>
       <c r="D24">
-        <v>1194085.255215036</v>
+        <v>1194085</v>
       </c>
     </row>
   </sheetData>

--- a/output/proyecciones/proyeccion_pea_por_sexo.xlsx
+++ b/output/proyecciones/proyeccion_pea_por_sexo.xlsx
@@ -489,13 +489,13 @@
         <v>45658</v>
       </c>
       <c r="B9">
-        <v>990111</v>
+        <v>986696</v>
       </c>
       <c r="C9">
-        <v>831314</v>
+        <v>820146</v>
       </c>
       <c r="D9">
-        <v>1821425</v>
+        <v>1806842</v>
       </c>
     </row>
     <row r="10">
@@ -503,13 +503,13 @@
         <v>47484</v>
       </c>
       <c r="B10">
-        <v>1009838</v>
+        <v>1001979</v>
       </c>
       <c r="C10">
-        <v>850374</v>
+        <v>827473</v>
       </c>
       <c r="D10">
-        <v>1860212</v>
+        <v>1829452</v>
       </c>
     </row>
     <row r="11">
@@ -517,13 +517,13 @@
         <v>49310</v>
       </c>
       <c r="B11">
-        <v>1027532</v>
+        <v>1014497</v>
       </c>
       <c r="C11">
-        <v>868156</v>
+        <v>833234</v>
       </c>
       <c r="D11">
-        <v>1895688</v>
+        <v>1847731</v>
       </c>
     </row>
     <row r="12">
@@ -531,13 +531,13 @@
         <v>51136</v>
       </c>
       <c r="B12">
-        <v>1038369</v>
+        <v>1018142</v>
       </c>
       <c r="C12">
-        <v>878556</v>
+        <v>832331</v>
       </c>
       <c r="D12">
-        <v>1916925</v>
+        <v>1850473</v>
       </c>
     </row>
     <row r="13">
@@ -545,13 +545,13 @@
         <v>52963</v>
       </c>
       <c r="B13">
-        <v>1037644</v>
+        <v>1010742</v>
       </c>
       <c r="C13">
-        <v>880302</v>
+        <v>823371</v>
       </c>
       <c r="D13">
-        <v>1917946</v>
+        <v>1834113</v>
       </c>
     </row>
     <row r="14">
@@ -559,13 +559,13 @@
         <v>54789</v>
       </c>
       <c r="B14">
-        <v>1031219</v>
+        <v>998867</v>
       </c>
       <c r="C14">
-        <v>877442</v>
+        <v>811318</v>
       </c>
       <c r="D14">
-        <v>1908661</v>
+        <v>1810185</v>
       </c>
     </row>
     <row r="15">
@@ -573,13 +573,13 @@
         <v>56615</v>
       </c>
       <c r="B15">
-        <v>1018947</v>
+        <v>981215</v>
       </c>
       <c r="C15">
-        <v>866333</v>
+        <v>794034</v>
       </c>
       <c r="D15">
-        <v>1885280</v>
+        <v>1775249</v>
       </c>
     </row>
     <row r="16">
@@ -587,13 +587,13 @@
         <v>58441</v>
       </c>
       <c r="B16">
-        <v>999525</v>
+        <v>957784</v>
       </c>
       <c r="C16">
-        <v>846012</v>
+        <v>771008</v>
       </c>
       <c r="D16">
-        <v>1845537</v>
+        <v>1728792</v>
       </c>
     </row>
     <row r="17">
@@ -601,13 +601,13 @@
         <v>60268</v>
       </c>
       <c r="B17">
-        <v>972794</v>
+        <v>930776</v>
       </c>
       <c r="C17">
-        <v>821655</v>
+        <v>747323</v>
       </c>
       <c r="D17">
-        <v>1794449</v>
+        <v>1678099</v>
       </c>
     </row>
     <row r="18">
@@ -615,13 +615,13 @@
         <v>62094</v>
       </c>
       <c r="B18">
-        <v>943898</v>
+        <v>905315</v>
       </c>
       <c r="C18">
-        <v>795191</v>
+        <v>724604</v>
       </c>
       <c r="D18">
-        <v>1739089</v>
+        <v>1629919</v>
       </c>
     </row>
     <row r="19">
@@ -629,13 +629,13 @@
         <v>63920</v>
       </c>
       <c r="B19">
-        <v>909183</v>
+        <v>877840</v>
       </c>
       <c r="C19">
-        <v>766969</v>
+        <v>703490</v>
       </c>
       <c r="D19">
-        <v>1676152</v>
+        <v>1581330</v>
       </c>
     </row>
     <row r="20">
@@ -643,13 +643,13 @@
         <v>65746</v>
       </c>
       <c r="B20">
-        <v>864783</v>
+        <v>844957</v>
       </c>
       <c r="C20">
-        <v>728188</v>
+        <v>677689</v>
       </c>
       <c r="D20">
-        <v>1592971</v>
+        <v>1522646</v>
       </c>
     </row>
     <row r="21">
@@ -657,13 +657,13 @@
         <v>67573</v>
       </c>
       <c r="B21">
-        <v>814817</v>
+        <v>811724</v>
       </c>
       <c r="C21">
-        <v>686234</v>
+        <v>651264</v>
       </c>
       <c r="D21">
-        <v>1501051</v>
+        <v>1462988</v>
       </c>
     </row>
     <row r="22">
@@ -671,13 +671,13 @@
         <v>69399</v>
       </c>
       <c r="B22">
-        <v>763954</v>
+        <v>781636</v>
       </c>
       <c r="C22">
-        <v>643900</v>
+        <v>628960</v>
       </c>
       <c r="D22">
-        <v>1407854</v>
+        <v>1410596</v>
       </c>
     </row>
     <row r="23">
@@ -685,13 +685,13 @@
         <v>71225</v>
       </c>
       <c r="B23">
-        <v>708330</v>
+        <v>750691</v>
       </c>
       <c r="C23">
-        <v>595847</v>
+        <v>605088</v>
       </c>
       <c r="D23">
-        <v>1304177</v>
+        <v>1355779</v>
       </c>
     </row>
     <row r="24">
@@ -699,13 +699,13 @@
         <v>73051</v>
       </c>
       <c r="B24">
-        <v>648566</v>
+        <v>719497</v>
       </c>
       <c r="C24">
-        <v>545519</v>
+        <v>582464</v>
       </c>
       <c r="D24">
-        <v>1194085</v>
+        <v>1301961</v>
       </c>
     </row>
   </sheetData>
